--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rd0d39e9ea7a844b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R0d2eaf066fc346fc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R0d2eaf066fc346fc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R0a553e46535b4d9b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R0a553e46535b4d9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R25b1e673899f431c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R25b1e673899f431c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R699978b6136e4eec"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,13 +27,13 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R699978b6136e4eec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rd12faa09d9c644e0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rd12faa09d9c644e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rad20265a67944893"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rad20265a67944893"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R50e7aa6320c64ab8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R50e7aa6320c64ab8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rf8b1bf7916eb47cc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rf8b1bf7916eb47cc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R159f36abb7f94385"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R159f36abb7f94385"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Ref6830b72251494c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Ref6830b72251494c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R2f8ffe9e5bd94cd2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R2f8ffe9e5bd94cd2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R2693cf3bb68043c1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R2693cf3bb68043c1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R13ac94b1d0a74172"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R13ac94b1d0a74172"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R7304b330513a4768"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R7304b330513a4768"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R32a27b0ef1a040ec"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R32a27b0ef1a040ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R46c4453db5194c35"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R46c4453db5194c35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Readbc0a3b19d4ce6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Readbc0a3b19d4ce6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Ra135d9908c004c6b"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Ra135d9908c004c6b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R4addb248a9214e24"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R4addb248a9214e24"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rb79f41b52ca44460"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rb79f41b52ca44460"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R2cb10a477d0a433e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R2cb10a477d0a433e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R5ce5e8cb1b234750"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R5ce5e8cb1b234750"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R09255c87fb1c4a11"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R09255c87fb1c4a11"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R0d380d2fee094aa3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R0d380d2fee094aa3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R6eb2a14ce0c3414e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R6eb2a14ce0c3414e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R0cb926ff74f84314"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R0cb926ff74f84314"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R7600837105244994"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R7600837105244994"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R7c1472fada5640d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R7c1472fada5640d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rd97eefa065bb4edb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rd97eefa065bb4edb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rb4df412a37b44ae0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rb4df412a37b44ae0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R2c74d6cbffae45f8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R2c74d6cbffae45f8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R984e39cd0cb44df6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R984e39cd0cb44df6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R40f64a186d0947e4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R40f64a186d0947e4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rb96d377e34584f79"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rb96d377e34584f79"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R46ff305610204c2b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R46ff305610204c2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R04b42bf9bab54a14"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R04b42bf9bab54a14"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rc1f5c47bb1254ff9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Rc1f5c47bb1254ff9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R15a3652de4954ede"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R15a3652de4954ede"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R122e8e4454e34d77"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R122e8e4454e34d77"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R8fdf26753d864164"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R8fdf26753d864164"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R90975d06c6ea4032"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R90975d06c6ea4032"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R539ff4173fc1413c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R539ff4173fc1413c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R65d4df0dbc364284"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R65d4df0dbc364284"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R179c65d1e9bb4ec2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/21_BasicFormulas.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="R179c65d1e9bb4ec2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BasicFormulas" sheetId="1" r:id="Ra7fa4094251940e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
